--- a/league_standings/Ligue_1_standing.xlsx
+++ b/league_standings/Ligue_1_standing.xlsx
@@ -612,13 +612,13 @@
         <v>1.83</v>
       </c>
       <c r="M3" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="N3" t="n">
         <v>31.2</v>
       </c>
       <c r="O3" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="P3" t="n">
         <v>1.18</v>
@@ -672,13 +672,13 @@
         <v>51.4</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="O4" t="n">
         <v>10.3</v>
       </c>
       <c r="P4" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -726,16 +726,16 @@
         <v>1.72</v>
       </c>
       <c r="M5" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="N5" t="n">
         <v>38.9</v>
       </c>
       <c r="O5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         <v>1.72</v>
       </c>
       <c r="M6" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="N6" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="O6" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="P6" t="n">
         <v>-0.19</v>
@@ -840,16 +840,16 @@
         <v>1.66</v>
       </c>
       <c r="M7" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="N7" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="O7" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1125,16 +1125,16 @@
         <v>1.17</v>
       </c>
       <c r="M12" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="N12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="O12" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="P12" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
